--- a/diary/validate_cascade.xlsx
+++ b/diary/validate_cascade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25035" windowHeight="14955" tabRatio="647" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25035" windowHeight="14955" tabRatio="647" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="638">
   <si>
     <t>Code Label</t>
   </si>
@@ -3495,7 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3938,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,7 +4129,9 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>333</v>
@@ -5565,7 +5567,9 @@
         <v>41</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -5604,7 +5608,9 @@
         <v>42</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>

--- a/diary/validate_cascade.xlsx
+++ b/diary/validate_cascade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="638">
   <si>
     <t>Code Label</t>
   </si>
@@ -3939,7 +3939,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,7 +4123,9 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="55"/>
+      <c r="AI2" s="55" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
